--- a/LCD Menu Welder.xlsx
+++ b/LCD Menu Welder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agentile\Google Drive\Engineering Active Projects\2020-11 - Battery Spot Welder\battery_welder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84B9C26-E228-42C4-986E-8EB7CC0B7C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803F9F34-F569-4E35-A3AE-CB3305F2641C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="694" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="18240" tabRatio="694" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weld screens" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
   <si>
     <t>.</t>
   </si>
@@ -117,9 +117,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>next menu</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -144,52 +141,7 @@
     <t>Gnd</t>
   </si>
   <si>
-    <t xml:space="preserve">Zero </t>
-  </si>
-  <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>Press</t>
-  </si>
-  <si>
-    <t>2x Press</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hold </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Hold </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latch </t>
-  </si>
-  <si>
-    <t>F/C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit </t>
-  </si>
-  <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t>in/mm</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set target </t>
-  </si>
-  <si>
-    <t>ABS/INC</t>
-  </si>
-  <si>
-    <t>Rapid</t>
-  </si>
-  <si>
-    <t>home</t>
   </si>
   <si>
     <t>read</t>
@@ -292,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,12 +257,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -375,12 +321,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,9 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -408,8 +350,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -880,1164 +822,964 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A3:AA69"/>
+  <dimension ref="A3:W40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="18" width="3.42578125" style="5" customWidth="1"/>
+    <col min="3" max="18" width="3.42578125" style="4" customWidth="1"/>
     <col min="20" max="23" width="17.140625" customWidth="1"/>
     <col min="24" max="27" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="S3" s="1"/>
-      <c r="W3" s="12" t="s">
-        <v>68</v>
+      <c r="W3" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>4</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>5</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>6</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>7</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>8</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>9</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>10</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>11</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>12</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <v>13</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>14</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>9</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>2</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>9</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
         <v>9</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <v>9</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <v>9</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="2">
         <v>9</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>72</v>
+      <c r="R8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3">
-        <v>2</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
         <v>9</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="2">
         <v>9</v>
       </c>
-      <c r="T13" s="10" t="s">
+      <c r="T13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="W13" s="10" t="s">
-        <v>66</v>
+      <c r="U13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2">
         <v>9</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="2">
         <v>9</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2">
         <v>9</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="2">
         <v>9</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="T14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="U14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="V14" s="9" t="s">
+      <c r="V14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="W14" s="9" t="s">
+      <c r="W14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="3">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2">
         <v>9</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>9</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>9</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="3">
-        <v>2</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O16" s="3" t="s">
+      <c r="N16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="3" t="s">
+      <c r="P16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="10" t="s">
+      <c r="T16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="W16" s="10" t="s">
-        <v>66</v>
+      <c r="U16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2">
         <v>9</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <v>9</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <v>9</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="2">
         <v>9</v>
       </c>
-      <c r="T17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>72</v>
+      <c r="T17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
         <v>9</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <v>9</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <v>9</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="T20" s="10" t="s">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U20" s="10" t="s">
+      <c r="U20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>3</v>
+      </c>
+      <c r="M21" s="2">
+        <v>5</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="V20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="W20" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="W21" s="9" t="s">
+      <c r="V21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="W21" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="3">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2">
         <v>9</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>9</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>9</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="3">
-        <v>2</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="13" t="s">
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="U24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <v>3</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2">
+        <v>9</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="P30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="V23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="W23" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="T24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="U24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C26" s="3">
-        <v>9</v>
-      </c>
-      <c r="D26" s="3">
-        <v>9</v>
-      </c>
-      <c r="E26" s="3">
-        <v>9</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C29" s="3">
-        <v>9</v>
-      </c>
-      <c r="D29" s="3">
-        <v>9</v>
-      </c>
-      <c r="E29" s="3">
-        <v>9</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="3">
-        <v>2</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>75</v>
+      <c r="Q30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-    </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-    </row>
-    <row r="46" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="W46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="W47" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="X47" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z47" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA47" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="Z48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="Z49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="X53" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z53" s="5">
-        <v>3</v>
-      </c>
-      <c r="AA53" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="W54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z54" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA54" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="W55" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="X55" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y55" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z55" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA55" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="Z56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="X60" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z60" s="5">
-        <v>3</v>
-      </c>
-      <c r="AA60" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="X62" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y62" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z62" s="5">
-        <v>3</v>
-      </c>
-      <c r="AA62" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="W63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z63" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA63" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="W64" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="X64" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y64" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z64" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA64" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z67" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z69" t="s">
-        <v>45</v>
-      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+    </row>
+    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2063,29 +1805,29 @@
   <sheetData>
     <row r="8" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2107,7 +1849,7 @@
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -2136,10 +1878,10 @@
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
         <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
       </c>
       <c r="I12">
         <v>2</v>
